--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.5;27.9]</t>
+          <t>[1;0.571428571428571]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.121;-2.025]</t>
+          <t>[0.542857142857143;0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14.7777777777778</t>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.42025;-0.94485]</t>
+          <t>[1;0.261224489795918]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.14319733290999</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.4094485;-1.7977125]</t>
+          <t>[0.791020408163265;0]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.474415402907862</t>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.417977125;-1.766928225]</t>
+          <t>[1;0.119416909620991]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0204045257261386</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0.41766928225;-1.79123480625]</t>
+          <t>[0.904466472303207;0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0135697347802695</t>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,1593 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0.4179123480625;-1.7903574544125]</t>
+          <t>[1;0.0545905872553103]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0005816191209158</t>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[0.956327530195752;0]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[1;0.024955697030999]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[0.980035442375201;0]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[1;0.0114083186427424]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[0.990873345085806;0]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1;0.00521523137953939]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[0.995827814896369;0]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[1;0.00238410577350368]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[0.998092715381197;0]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[1;0.00108987692503026]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[0.999128098459976;0]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[1;0.0004982294514424]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[0.999601416438846;0]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[1;0.000227762034945123]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[0.999817790372044;0]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[1;0.000104119787403545]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[0.999916704170077;0]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[1;4.75976170987158e-05]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[0.999961921906321;0]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[1;2.1758910673686e-05]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[0.999982592871461;0]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[1;9.9469305936406e-06]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[0.999992042455525;0]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[1;4.5471682713627e-06]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[0.999996362265383;0]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[1;2.07870549551181e-06]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[0.999998337035604;0]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[1;9.50265369392689e-07]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[0.999999239787704;0]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[1;4.34407026017603e-07]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[0.999999652474379;0]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[1;1.98586069033446e-07]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[0.999999841131145;0]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[1;9.07822029772021e-08]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[0.999999927374238;0]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[1;4.15004356435489e-08]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[0.999999966799652;0]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[1;1.8971627713249e-08]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[0.999999984822698;0]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[1;8.67274407845287e-09]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[0.999999993061805;0]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[1;3.96468302632513e-09]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[0.999999996828254;0]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[1;1.81242654218039e-09]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[0.999999998550059;0]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[1;8.28537904951077e-10]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[0.99999999933717;0]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[1;3.78760245389742e-10]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[0.999999999696992;0]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[1;1.73147496340675e-10]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[0.999999999861482;0]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[1;7.91531284960456e-11]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[0.999999999936678;0]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[1;3.61842777962806e-11]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[0.999999999971053;0]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[1;1.65413238661927e-11]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[0.999999999986767;0]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[1;7.56172902072194e-12]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[0.999999999993951;0]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[1;3.45679040947289e-12]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[0.999999999997235;0]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[1;1.58029145325145e-12]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[0.999999999998736;0]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[1;7.22422122123589e-13]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[0.999999999999422;0]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[1;3.30291349825984e-13]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[0.999999999999736;0]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[1;1.50990331349021e-13]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[0.999999999999879;0]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[1;6.90558721316847e-14]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[0.999999999999945;0]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[1;3.1641356201817e-14]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[0.999999999999975;0]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[1;1.4432899320127e-14]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[0.999999999999988;0]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[1;6.55031584528842e-15]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[0.999999999999995;0]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[1;2.99760216648792e-15]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[0.999999999999998;0]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[1;1.4432899320127e-15]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[0.999999999999999;0]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[1;6.66133814775094e-16]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[0.999999999999999;0]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[1;3.33066907387547e-16]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[1;0]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[1;1.11022302462516e-16]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[1;0]</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[1;1.11022302462516e-16]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[1;0]</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[1;1.11022302462516e-16]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[1;0]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[1;1.11022302462516e-16]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[1;0]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1;0.571428571428571]</t>
+          <t>[0.4;0.625]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.542857142857143;0]</t>
+          <t>[-0.475;0.425]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>1.84210526315789</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1;0.261224489795918]</t>
+          <t>[-0.195;0.8625]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.43589743589744</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.791020408163265;0]</t>
+          <t>[-0.8075;0.7225]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.758513931888545</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1;0.119416909620991]</t>
+          <t>[-0.6115;1.02875]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.320523303352412</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0.904466472303207;0]</t>
+          <t>[-1.04025;0.93075]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.412160538332132</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1;0.0545905872553103]</t>
+          <t>[-0.90305;1.145125]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.187206636830041</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0.956327530195752;0]</t>
+          <t>[-1.203175;1.076525]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.249444178943213</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1;0.024955697030999]</t>
+          <t>[-1.107135;1.2265875]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.122341455460781</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0.980035442375201;0]</t>
+          <t>[-1.3172225;1.1785675]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.159492796395446</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1;0.0114083186427424]</t>
+          <t>[-1.2499945;1.28361125]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0818345507644936</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0.990873345085806;0]</t>
+          <t>[-1.39705575;1.24999725]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.10526512632012</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1;0.00521523137953939]</t>
+          <t>[-1.34999615;1.323527875]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0555565367295344</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0.995827814896369;0]</t>
+          <t>[-1.452939025;1.299998075]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0708514763721761</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1;0.00238410577350368]</t>
+          <t>[-1.419997305;1.3514695125]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.038085533579508</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0.998092715381197;0]</t>
+          <t>[-1.4920573175;1.3349986525]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0482957401534275</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1;0.00108987692503026]</t>
+          <t>[-1.4689981135;1.37102865875]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0262795427506596</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[0.999128098459976;0]</t>
+          <t>[-1.51944012225;1.35949905675]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.033197760156093</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1;0.0004982294514424]</t>
+          <t>[-1.50329867945;1.384720061125]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0182137928690869</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0.999601416438846;0]</t>
+          <t>[-1.538608085575;1.376649339725]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0229489279668022</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[1;0.000227762034945123]</t>
+          <t>[-1.527309075615;1.3943040427875]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0126620181256913</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0.999817790372044;0]</t>
+          <t>[-1.5520256599025;1.3886545378075]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0159253709046619</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1;0.000104119787403545]</t>
+          <t>[-1.5441163529305;1.40101282995125]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.00882097000081</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[0.999916704170077;0]</t>
+          <t>[-1.56141796193175;1.39705817646525]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.011080703196116</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[1;4.75976170987158e-05]</t>
+          <t>[-1.55588144705135;1.40570898096588]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0061540508154689</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[0.999961921906321;0]</t>
+          <t>[-1.56799257335223;1.40294072352568]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0077239691735162</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1;2.1758910673686e-05]</t>
+          <t>[-1.56411701293595;1.40899628667611]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0042977850315864</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[0.999982592871461;0]</t>
+          <t>[-1.57259480134656;1.40705850646797]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0053909553836456</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[1;9.9469305936406e-06]</t>
+          <t>[-1.56988190905516;1.41129740067328]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0030035442588387</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[0.999992042455525;0]</t>
+          <t>[-1.57581636094259;1.40994095452758]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0037659539744078</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[1;4.5471682713627e-06]</t>
+          <t>[-1.57391733633861;1.4129081804713]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0021000840569304</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[0.999996362265383;0]</t>
+          <t>[-1.57807145265981;1.41195866816931]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0026324006522</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[1;2.07870549551181e-06]</t>
+          <t>[-1.57674213543703;1.41403572632991]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0014688866214087</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0.999998337035604;0]</t>
+          <t>[-1.57965001686187;1.41337106771851]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0018408390426992</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[1;9.50265369392689e-07]</t>
+          <t>[-1.57871949480592;1.41482500843093]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0010276470261381</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0.999999239787704;0]</t>
+          <t>[-1.58075501180331;1.41435974740296]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0012876865688793</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[1;4.34407026017603e-07]</t>
+          <t>[-1.58010364636415;1.41537750590165]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0007190721164143</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0.999999652474379;0]</t>
+          <t>[-1.58152850826232;1.41505182318207]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0009009397495696</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1;1.98586069033446e-07]</t>
+          <t>[-1.5810725524549;1.41576425413116]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0005032129798493</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[0.999999841131145;0]</t>
+          <t>[-1.58206995578362;1.41553627622745]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.000630441988405</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[1;9.07822029772021e-08]</t>
+          <t>[-1.58175078671843;1.41603497789181]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0003521817413737</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[0.999999927374238;0]</t>
+          <t>[-1.58244896904854;1.41587539335922]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0004412036936167</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[1;4.15004356435489e-08]</t>
+          <t>[-1.5822255507029;1.41622448452427]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.00024649423087</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[0.999999966799652;0]</t>
+          <t>[-1.58271427833398;1.41611277535145]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0003087908144655</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[1;1.8971627713249e-08]</t>
+          <t>[-1.58255788549203;1.41635713916699]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0001725298011207</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[0.999999984822698;0]</t>
+          <t>[-1.58289999483378;1.41627894274602]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0002161282095316</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[1;8.67274407845287e-09]</t>
+          <t>[-1.58279051984442;1.41644999741689]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.000120762943406</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[0.999999993061805;0]</t>
+          <t>[-1.58302999638365;1.41639525992221]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0001512773224594</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[1;3.96468302632513e-09]</t>
+          <t>[-1.5829533638911;1.41651499819182]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>8.45301813011683e-05</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[0.999999996828254;0]</t>
+          <t>[-1.58312099746855;1.41647668194555]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.0001058880387073</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[1;1.81242654218039e-09]</t>
+          <t>[-1.58306735472377;1.41656049873428]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5.91692263084025e-05</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[0.999999998550059;0]</t>
+          <t>[-1.58318469822799;1.41653367736188]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>7.41186447496173e-05</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[1;8.28537904951077e-10]</t>
+          <t>[-1.58314714830664;1.41659234911399]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.14175271715898e-05</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[0.99999999933717;0]</t>
+          <t>[-1.58322928875959;1.41657357415332]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>5.18815900752252e-05</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[1;3.78760245389742e-10]</t>
+          <t>[-1.58320300381465;1.4166146443798]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.89918127277575e-05</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[0.999999999696992;0]</t>
+          <t>[-1.58326050213171;1.41660150190732]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>3.63163970746516e-05</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[1;1.73147496340675e-10]</t>
+          <t>[-1.58324210267025;1.41663025106586]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.02940453321417e-05</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[0.999999999861482;0]</t>
+          <t>[-1.5832823514922;1.41662105133513]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>2.54211271346359e-05</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[1;7.91531284960456e-11]</t>
+          <t>[-1.58326947186918;1.4166411757461]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.42057221815929e-05</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[0.999999999936678;0]</t>
+          <t>[-1.58329764604454;1.41663473593459]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>1.7794617097628e-05</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[1;3.61842777962806e-11]</t>
+          <t>[-1.58328863030842;1.41664882302227]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>9.94395184786576e-06</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[0.999999999971053;0]</t>
+          <t>[-1.58330835223118;1.41664431515421]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>1.24561477404073e-05</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[1;1.65413238661927e-11]</t>
+          <t>[-1.5833020412159;1.41665417611559]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.96073999093031e-06</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[0.999999999986767;0]</t>
+          <t>[-1.58331584656182;1.41665102060795]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>8.71926214705842e-06</t>
         </is>
       </c>
     </row>
@@ -1546,607 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[1;7.56172902072194e-12]</t>
+          <t>[-1.58331142885113;1.41665792328091]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>[0.999999999993951;0]</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>[1;3.45679040947289e-12]</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>[0.999999999997235;0]</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>[1;1.58029145325145e-12]</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>[0.999999999998736;0]</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>[1;7.22422122123589e-13]</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>[0.999999999999422;0]</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>[1;3.30291349825984e-13]</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>[0.999999999999736;0]</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>[1;1.50990331349021e-13]</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>[0.999999999999879;0]</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>[1;6.90558721316847e-14]</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>[0.999999999999945;0]</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>[1;3.1641356201817e-14]</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>[0.999999999999975;0]</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>[1;1.4432899320127e-14]</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>[0.999999999999988;0]</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>[1;6.55031584528842e-15]</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>[0.999999999999995;0]</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>[1;2.99760216648792e-15]</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>[0.999999999999998;0]</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>[1;1.4432899320127e-15]</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>[0.999999999999999;0]</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>[1;6.66133814775094e-16]</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>[0.999999999999999;0]</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>[1;3.33066907387547e-16]</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>[1;0]</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>[1;1.11022302462516e-16]</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>[1;0]</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>[1;1.11022302462516e-16]</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>[1;0]</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>[1;1.11022302462516e-16]</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>[1;0]</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>[1;1.11022302462516e-16]</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>[1;0]</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>inf</t>
+          <t>4.87250510546391e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>xn</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
         </is>
       </c>
     </row>
@@ -458,12 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.4;0.625]</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -475,12 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-0.475;0.425]</t>
+          <t>3.33333333333333</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.84210526315789</t>
+          <t>-7.33333333333333</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -492,12 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-0.195;0.8625]</t>
+          <t>2.22222222222222</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.43589743589744</t>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.6666666666667</t>
         </is>
       </c>
     </row>
@@ -509,12 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-0.8075;0.7225]</t>
+          <t>2.89855072463768</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.758513931888545</t>
+          <t>-56.2222222222222</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-23.0</t>
         </is>
       </c>
     </row>
@@ -526,12 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-0.6115;1.02875]</t>
+          <t>2.72108843537415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.320523303352412</t>
+          <t>32.6666666666667</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>288.111111111111</t>
         </is>
       </c>
     </row>
@@ -543,12 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-1.04025;0.93075]</t>
+          <t>2.84292821606254</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.412160538332132</t>
+          <t>-382.148148148148</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-156.333333333333</t>
         </is>
       </c>
     </row>
@@ -560,12 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-0.90305;1.145125]</t>
+          <t>2.81590989088349</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.187206636830041</t>
+          <t>210.444444444444</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1917.74074074074</t>
         </is>
       </c>
     </row>
@@ -577,12 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-1.203175;1.076525]</t>
+          <t>2.83476843485348</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.249444178943213</t>
+          <t>-2554.98765432099</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-1045.22222222222</t>
         </is>
       </c>
     </row>
@@ -594,12 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-1.107135;1.2265875]</t>
+          <t>2.83070608424889</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.122341455460781</t>
+          <t>1395.62962962963</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12781.9382716049</t>
         </is>
       </c>
     </row>
@@ -611,12 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-1.3172225;1.1785675]</t>
+          <t>2.833548505923</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.159492796395446</t>
+          <t>-17040.5843621399</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-6971.14814814815</t>
         </is>
       </c>
     </row>
@@ -628,12 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[-1.2499945;1.28361125]</t>
+          <t>2.83293893511596</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0818345507644936</t>
+          <t>9296.86419753086</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>85209.9218106996</t>
         </is>
       </c>
     </row>
@@ -645,12 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[-1.39705575;1.24999725]</t>
+          <t>2.83336560713845</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.10526512632012</t>
+          <t>-113611.229080933</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-46477.3209876543</t>
         </is>
       </c>
     </row>
@@ -662,12 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-1.34999615;1.323527875]</t>
+          <t>2.83327416660015</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0555565367295344</t>
+          <t>61971.7613168724</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>568063.145404664</t>
         </is>
       </c>
     </row>
@@ -679,12 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-1.452939025;1.299998075]</t>
+          <t>2.83333817435723</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0708514763721761</t>
+          <t>-757415.527206218</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-309851.806584362</t>
         </is>
       </c>
     </row>
@@ -696,12 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-1.419997305;1.3514695125]</t>
+          <t>2.83332445816582</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.038085533579508</t>
+          <t>413137.742112483</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3787084.63603109</t>
         </is>
       </c>
     </row>
@@ -713,12 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[-1.4920573175;1.3349986525]</t>
+          <t>2.83333405948586</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0482957401534275</t>
+          <t>-5049444.18137479</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-2065681.71056241</t>
         </is>
       </c>
     </row>
@@ -730,12 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-1.4689981135;1.37102865875]</t>
+          <t>2.83333200205466</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0262795427506596</t>
+          <t>2754244.28074988</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25247227.9068739</t>
         </is>
       </c>
     </row>
@@ -747,12 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-1.51944012225;1.35949905675]</t>
+          <t>2.83333344225619</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.033197760156093</t>
+          <t>-33662968.5424986</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-13771214.4037494</t>
         </is>
       </c>
     </row>
@@ -764,12 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-1.50329867945;1.384720061125]</t>
+          <t>2.83333313364145</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0182137928690869</t>
+          <t>18361621.2049992</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>168314849.712493</t>
         </is>
       </c>
     </row>
@@ -781,12 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-1.538608085575;1.376649339725]</t>
+          <t>2.83333334967176</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0229489279668022</t>
+          <t>-224419797.616657</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-91808099.0249961</t>
         </is>
       </c>
     </row>
@@ -798,12 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[-1.527309075615;1.3943040427875]</t>
+          <t>2.83333330337955</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0126620181256913</t>
+          <t>122410800.699995</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1122098995.08329</t>
         </is>
       </c>
     </row>
@@ -815,12 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[-1.5520256599025;1.3886545378075]</t>
+          <t>2.8333333357841</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0159253709046619</t>
+          <t>-1496131991.44438</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-612053996.499974</t>
         </is>
       </c>
     </row>
@@ -832,12 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[-1.5441163529305;1.40101282995125]</t>
+          <t>2.83333332884027</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.00882097000081</t>
+          <t>816071997.333299</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7480659964.2219</t>
         </is>
       </c>
     </row>
@@ -849,12 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[-1.56141796193175;1.39705817646525]</t>
+          <t>2.83333333370095</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.011080703196116</t>
+          <t>-9974213283.62921</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-4080359979.66649</t>
         </is>
       </c>
     </row>
@@ -866,12 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[-1.55588144705135;1.40570898096588]</t>
+          <t>2.83333333265937</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0061540508154689</t>
+          <t>5440479974.88866</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>49871066425.146</t>
         </is>
       </c>
     </row>
@@ -883,12 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[-1.56799257335223;1.40294072352568]</t>
+          <t>2.83333333338848</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0077239691735162</t>
+          <t>-66494755231.528</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-27202399867.4433</t>
         </is>
       </c>
     </row>
@@ -900,12 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[-1.56411701293595;1.40899628667611]</t>
+          <t>2.83333333323224</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.0042977850315864</t>
+          <t>36269866491.9244</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>332473776164.64</t>
         </is>
       </c>
     </row>
@@ -917,12 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[-1.57259480134656;1.40705850646797]</t>
+          <t>2.8333333333416</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0053909553836456</t>
+          <t>-443298368217.52</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-181349332452.622</t>
         </is>
       </c>
     </row>
@@ -934,12 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[-1.56988190905516;1.41129740067328]</t>
+          <t>2.83333333331817</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0030035442588387</t>
+          <t>241799109938.829</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2216491841094.6</t>
         </is>
       </c>
     </row>
@@ -951,12 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[-1.57581636094259;1.40994095452758]</t>
+          <t>2.83333333333457</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0037659539744078</t>
+          <t>-2955322454790.8</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-1208995549687.15</t>
         </is>
       </c>
     </row>
@@ -968,12 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[-1.57391733633861;1.4129081804713]</t>
+          <t>2.83333333333106</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0021000840569304</t>
+          <t>1611994066251.53</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14776612273961.0</t>
         </is>
       </c>
     </row>
@@ -985,12 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[-1.57807145265981;1.41195866816931]</t>
+          <t>2.83333333333352</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0026324006522</t>
+          <t>-19702149698612.7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-8059970331250.64</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[-1.57674213543703;1.41403572632991]</t>
+          <t>2.83333333333299</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0014688866214087</t>
+          <t>10746627108336.2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>98510748493070.4</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[-1.57965001686187;1.41337106771851]</t>
+          <t>2.83333333333336</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0018408390426992</t>
+          <t>-131347664657425.0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-53733135541673.9</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[-1.57871949480592;1.41482500843093]</t>
+          <t>2.83333333333328</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0010276470261381</t>
+          <t>71644180722233.9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>656738323287133.0</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[-1.58075501180331;1.41435974740296]</t>
+          <t>2.83333333333334</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0012876865688793</t>
+          <t>-875651097716175.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-358220903611162.0</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1255,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[-1.58010364636415;1.41537750590165]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0007190721164143</t>
+          <t>477627871481552.0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4378255488580880.0</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[-1.58152850826232;1.41505182318207]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0009009397495696</t>
+          <t>-5837673984774510.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-2388139357407750.0</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1299,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[-1.5810725524549;1.41576425413116]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0005032129798493</t>
+          <t>3184185809877000.0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.91883699238725e+16</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[-1.58206995578362;1.41553627622745]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.000630441988405</t>
+          <t>-3.89178265651634e+16</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-1.5920929049385e+16</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[-1.58175078671843;1.41603497789181]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0003521817413737</t>
+          <t>2.122790539918e+16</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.94589132825817e+17</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[-1.58244896904854;1.41587539335922]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0004412036936167</t>
+          <t>-2.59452177101089e+17</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-1.061395269959e+17</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[-1.5822255507029;1.41622448452427]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.00024649423087</t>
+          <t>1.41519369327867e+17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.29726088550545e+18</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[-1.58271427833398;1.41611277535145]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.0003087908144655</t>
+          <t>-1.72968118067393e+18</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-7.07596846639334e+17</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[-1.58255788549203;1.41635713916699]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0001725298011207</t>
+          <t>9.43462462185779e+17</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.64840590336964e+18</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[-1.58289999483378;1.41627894274602]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0002161282095316</t>
+          <t>-1.15312078711595e+19</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-4.71731231092889e+18</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[-1.58279051984442;1.41644999741689]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.000120762943406</t>
+          <t>6.28974974790519e+18</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.76560393557976e+19</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[-1.58302999638365;1.41639525992221]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0001512773224594</t>
+          <t>-7.68747191410635e+19</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-3.1448748739526e+19</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[-1.5829533638911;1.41651499819182]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8.45301813011683e-05</t>
+          <t>4.19316649860346e+19</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.84373595705317e+20</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[-1.58312099746855;1.41647668194555]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0001058880387073</t>
+          <t>-5.1249812760709e+20</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-2.09658324930173e+20</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[-1.58306735472377;1.41656049873428]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5.91692263084025e-05</t>
+          <t>2.79544433240231e+20</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.56249063803545e+21</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[-1.58318469822799;1.41653367736188]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7.41186447496173e-05</t>
+          <t>-3.41665418404726e+21</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-1.39772216620115e+21</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[-1.58314714830664;1.41659234911399]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.14175271715898e-05</t>
+          <t>1.86362955493487e+21</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.70832709202363e+22</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1629,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[-1.58322928875959;1.41657357415332]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5.18815900752252e-05</t>
+          <t>-2.27776945603151e+22</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-9.31814777467436e+21</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[-1.58320300381465;1.4166146443798]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2.89918127277575e-05</t>
+          <t>1.24241970328991e+22</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.13888472801575e+23</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[-1.58326050213171;1.41660150190732]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3.63163970746516e-05</t>
+          <t>-1.51851297068767e+23</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-6.21209851644957e+22</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[-1.58324210267025;1.41663025106586]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2.02940453321417e-05</t>
+          <t>8.28279802193276e+22</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.59256485343836e+23</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[-1.5832823514922;1.41662105133513]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2.54211271346359e-05</t>
+          <t>-1.01234198045845e+24</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-4.14139901096638e+23</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[-1.58326947186918;1.4166411757461]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.42057221815929e-05</t>
+          <t>5.52186534795517e+23</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.06170990229224e+24</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[-1.58329764604454;1.41663473593459]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.7794617097628e-05</t>
+          <t>-6.74894653638966e+24</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>-2.76093267397759e+24</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[-1.58328863030842;1.41664882302227]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>9.94395184786576e-06</t>
+          <t>3.68124356530345e+24</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.37447326819483e+25</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[-1.58330835223118;1.41664431515421]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.24561477404073e-05</t>
+          <t>-4.49929769092644e+25</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-1.84062178265172e+25</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1827,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[-1.5833020412159;1.41665417611559]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6.96073999093031e-06</t>
+          <t>2.45416237686897e+25</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.24964884546322e+26</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1849,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[-1.58331584656182;1.41665102060795]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>8.71926214705842e-06</t>
+          <t>-2.99953179395096e+26</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-1.22708118843448e+26</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1871,787 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[-1.58331142885113;1.41665792328091]</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.87250510546391e-06</t>
+          <t>1.63610825124598e+26</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.49976589697548e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-1.99968786263397e+27</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-8.18054125622989e+26</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1.09073883416399e+27</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.99843931316986e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-1.33312524175598e+28</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>-5.45369417081993e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7.2715922277599e+27</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.66562620877991e+28</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-8.88750161170654e+28</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-3.63579611387995e+28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.84772815183993e+28</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.44375080585327e+29</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-5.92500107447103e+29</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-2.42386407591997e+29</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3.23181876789329e+29</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.96250053723551e+30</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-3.95000071631402e+30</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-1.61590938394664e+30</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2.15454584526219e+30</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.97500035815701e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-2.63333381087601e+31</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-1.0772729226311e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1.43636389684146e+31</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.31666690543801e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-1.75555587391734e+32</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-7.18181948420731e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9.57575931227641e+31</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.7777793695867e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-1.17037058261156e+33</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-4.7878796561382e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6.3838395415176e+32</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.8518529130578e+33</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-7.80247055074374e+33</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-3.1919197707588e+33</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.2558930276784e+33</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.90123527537187e+34</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-5.20164703382916e+34</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-2.1279465138392e+34</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2.83726201845227e+34</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.60082351691458e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-3.46776468921944e+35</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>-1.41863100922613e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.89150801230151e+35</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.73388234460972e+36</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-2.31184312614629e+36</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>-9.45754006150756e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.26100534153434e+36</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.15592156307315e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-1.5412287507641898e+37</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>-6.3050267076717e+36</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>8.40670227689561e+36</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.706143753820969e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-1.0274858338428e+38</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>-4.2033511384477997e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5.604468184597069e+37</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.13742916921398e+38</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-6.84990555895198e+38</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>-2.80223409229854e+38</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3.73631212306471e+38</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.4249527794759905e+39</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-4.5666037059679806e+39</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-1.86815606153236e+39</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2.4908747487098103e+39</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.28330185298399e+40</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>-3.04440247064532e+40</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>-1.2454373743549e+40</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1.6605831658065401e+40</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.52220123532266e+41</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2.83333333333333</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-2.02960164709688e+41</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-8.3029158290327e+40</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.33333333333333</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-7.33333333333333</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.22222222222222</t>
+          <t>1.11111111111111</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.6666666666667</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.89855072463768</t>
+          <t>0.666666666666667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-56.2222222222222</t>
+          <t>-12.6666666666667</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.72108843537415</t>
+          <t>0.677966101694915</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>32.6666666666667</t>
+          <t>-39.3333333333333</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>288.111111111111</t>
+          <t>24.6666666666667</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.84292821606254</t>
+          <t>0.519480519480519</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-382.148148148148</t>
+          <t>-32.2222222222222</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-156.333333333333</t>
+          <t>51.3333333333333</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.81590989088349</t>
+          <t>0.524590163934426</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>210.444444444444</t>
+          <t>-67.7777777777778</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1917.74074074074</t>
+          <t>44.2222222222222</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.83476843485348</t>
+          <t>0.445682451253482</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-2554.98765432099</t>
+          <t>-58.2962962962963</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1045.22222222222</t>
+          <t>79.7777777777778</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.83070608424889</t>
+          <t>0.448493342676944</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1395.62962962963</t>
+          <t>-105.703703703704</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12781.9382716049</t>
+          <t>70.2962962962963</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.833548505923</t>
+          <t>0.40276903713027</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-17040.5843621399</t>
+          <t>-93.0617283950617</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-6971.14814814815</t>
+          <t>117.703703703704</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.83293893511596</t>
+          <t>0.404487280771054</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9296.86419753086</t>
+          <t>-156.271604938272</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85209.9218106996</t>
+          <t>105.061728395062</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.83336560713845</t>
+          <t>0.375641966250917</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-113611.229080933</t>
+          <t>-139.415637860082</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-46477.3209876543</t>
+          <t>168.271604938272</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.83327416660015</t>
+          <t>0.376761470252768</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>61971.7613168724</t>
+          <t>-223.695473251029</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>568063.145404664</t>
+          <t>151.415637860082</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.83333817435723</t>
+          <t>0.357579355379404</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-757415.527206218</t>
+          <t>-201.22085048011</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-309851.806584362</t>
+          <t>235.695473251029</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.83332445816582</t>
+          <t>0.358339530204278</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>413137.742112483</t>
+          <t>-313.593964334705</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3787084.63603109</t>
+          <t>213.22085048011</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.83333405948586</t>
+          <t>0.345132668795659</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-5049444.18137479</t>
+          <t>-283.627800640146</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-2065681.71056241</t>
+          <t>325.593964334705</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.83333200205466</t>
+          <t>0.345663488661081</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2754244.28074988</t>
+          <t>-433.45861911294</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25247227.9068739</t>
+          <t>295.627800640146</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.83333344225619</t>
+          <t>0.336351822692662</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-33662968.5424986</t>
+          <t>-393.503734186862</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-13771214.4037494</t>
+          <t>445.45861911294</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.83333313364145</t>
+          <t>0.336729781235597</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18361621.2049992</t>
+          <t>-593.278158817253</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>168314849.712493</t>
+          <t>405.503734186862</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.83333334967176</t>
+          <t>0.330053912767581</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-224419797.616657</t>
+          <t>-540.004978915816</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-91808099.0249961</t>
+          <t>605.278158817253</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.83333330337955</t>
+          <t>0.330326784652879</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>122410800.699995</t>
+          <t>-806.370878423004</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1122098995.08329</t>
+          <t>552.004978915816</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.8333333357841</t>
+          <t>0.325483111056535</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-1496131991.44438</t>
+          <t>-735.339971887754</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-612053996.499974</t>
+          <t>818.370878423004</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.83333332884027</t>
+          <t>0.325682093022786</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>816071997.333299</t>
+          <t>-1090.49450456401</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7480659964.2219</t>
+          <t>747.339971887754</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.83333333370095</t>
+          <t>0.322137236245637</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-9974213283.62921</t>
+          <t>-995.786629183672</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-4080359979.66649</t>
+          <t>1102.49450456401</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.83333333265937</t>
+          <t>0.322283397245039</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5440479974.88866</t>
+          <t>-1469.32600608534</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49871066425.146</t>
+          <t>1007.78662918367</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.83333333338848</t>
+          <t>0.319672627737818</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-66494755231.528</t>
+          <t>-1343.04883891156</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-27202399867.4433</t>
+          <t>1481.32600608534</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2.83333333323224</t>
+          <t>0.319780565006081</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>36269866491.9244</t>
+          <t>-1974.43467478045</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>332473776164.64</t>
+          <t>1355.04883891156</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.8333333333416</t>
+          <t>0.31784877896308</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-443298368217.52</t>
+          <t>-1806.06511854875</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-181349332452.622</t>
+          <t>1986.43467478045</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.83333333331817</t>
+          <t>0.31792880394653</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>241799109938.829</t>
+          <t>-2647.91289970727</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2216491841094.6</t>
+          <t>1818.06511854875</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.83333333333457</t>
+          <t>0.316494491699773</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-2955322454790.8</t>
+          <t>-2423.420158065</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-1208995549687.15</t>
+          <t>2659.91289970727</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.83333333333106</t>
+          <t>0.316553996279098</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1611994066251.53</t>
+          <t>-3545.88386627636</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14776612273961.0</t>
+          <t>2435.420158065</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2.83333333333352</t>
+          <t>0.315486325692277</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-19702149698612.7</t>
+          <t>-3246.56021075333</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-8059970331250.64</t>
+          <t>3557.88386627636</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.83333333333299</t>
+          <t>0.315530668155383</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10746627108336.2</t>
+          <t>-4743.17848836848</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98510748493070.4</t>
+          <t>3258.56021075333</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.83333333333336</t>
+          <t>0.314734406137643</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-131347664657425.0</t>
+          <t>-4344.08028100444</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-53733135541673.9</t>
+          <t>4755.17848836848</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.83333333333328</t>
+          <t>0.314767503476076</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>71644180722233.9</t>
+          <t>-6339.57131782464</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>656738323287133.0</t>
+          <t>4356.08028100444</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.83333333333334</t>
+          <t>0.314172814405812</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-875651097716175.0</t>
+          <t>-5807.44037467259</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-358220903611162.0</t>
+          <t>6351.57131782464</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.314197548249811</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>477627871481552.0</t>
+          <t>-8468.09509043286</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4378255488580880.0</t>
+          <t>5819.44037467259</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.313752934063438</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-5837673984774510.0</t>
+          <t>-7758.58716623012</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-2388139357407750.0</t>
+          <t>8480.09509043286</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.313771434530189</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3184185809877000.0</t>
+          <t>-11306.1267872438</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.91883699238725e+16</t>
+          <t>7770.58716623012</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31343875958449</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-3.89178265651634e+16</t>
+          <t>-10360.1162216402</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1.5920929049385e+16</t>
+          <t>11318.1267872438</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31345260695574</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.122790539918e+16</t>
+          <t>-15090.1690496584</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.94589132825817e+17</t>
+          <t>10372.1162216402</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.313203541323439</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-2.59452177101089e+17</t>
+          <t>-13828.8216288535</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-1.061395269959e+17</t>
+          <t>15102.1690496584</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.313213911155419</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.41519369327867e+17</t>
+          <t>-20135.5587328779</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.29726088550545e+18</t>
+          <t>13840.8216288535</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.3130273591774</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-1.72968118067393e+18</t>
+          <t>-18453.7621718047</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-7.07596846639334e+17</t>
+          <t>20147.5587328779</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.313035127739634</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9.43462462185779e+17</t>
+          <t>-26862.7449771705</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.64840590336964e+18</t>
+          <t>18465.7621718047</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312895352588797</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-1.15312078711595e+19</t>
+          <t>-24620.3495624063</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-4.71731231092889e+18</t>
+          <t>26874.7449771705</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312901174061231</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6.28974974790519e+18</t>
+          <t>-35832.3266362273</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.76560393557976e+19</t>
+          <t>24632.3495624063</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312796420689049</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-7.68747191410635e+19</t>
+          <t>-32842.4660832084</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-3.1448748739526e+19</t>
+          <t>35844.3266362273</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312800784012528</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.19316649860346e+19</t>
+          <t>-47791.7688483031</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.84373595705317e+20</t>
+          <t>32854.4660832084</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31272226281015</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-5.1249812760709e+20</t>
+          <t>-43805.2881109445</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-2.09658324930173e+20</t>
+          <t>47803.7688483031</t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312725533739841</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2.79544433240231e+20</t>
+          <t>-63737.6917977375</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.56249063803545e+21</t>
+          <t>43817.2881109445</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312666667472428</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-3.41665418404726e+21</t>
+          <t>-58422.3841479261</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-1.39772216620115e+21</t>
+          <t>63749.6917977375</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312669119791106</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.86362955493487e+21</t>
+          <t>-84998.9223969833</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.70832709202363e+22</t>
+          <t>58434.3841479261</t>
         </is>
       </c>
     </row>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312624983939715</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-2.27776945603151e+22</t>
+          <t>-77911.8455305681</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-9.31814777467436e+21</t>
+          <t>85010.9223969833</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312626822684749</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.24241970328991e+22</t>
+          <t>-113347.229862644</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.13888472801575e+23</t>
+          <t>77923.8455305681</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312593728583132</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-1.51851297068767e+23</t>
+          <t>-103897.794040757</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-6.21209851644957e+22</t>
+          <t>113359.229862644</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312595107364144</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8.28279802193276e+22</t>
+          <t>-151144.973150193</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7.59256485343836e+23</t>
+          <t>103909.794040757</t>
         </is>
       </c>
     </row>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312570291166716</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-1.01234198045845e+24</t>
+          <t>-138545.725387677</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-4.14139901096638e+23</t>
+          <t>151156.973150193</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312571325096275</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5.52186534795517e+23</t>
+          <t>-201541.964200257</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.06170990229224e+24</t>
+          <t>138557.725387677</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312552715410695</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-6.74894653638966e+24</t>
+          <t>-184742.967183569</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-2.76093267397759e+24</t>
+          <t>201553.964200257</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312553490770018</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3.68124356530345e+24</t>
+          <t>-268737.952267009</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.37447326819483e+25</t>
+          <t>184754.967183569</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312539534890743</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-4.49929769092644e+25</t>
+          <t>-246339.289578092</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-1.84062178265172e+25</t>
+          <t>268749.952267009</t>
         </is>
       </c>
     </row>
@@ -1827,17 +1827,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31254011636083</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2.45416237686897e+25</t>
+          <t>-358332.603022679</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.24964884546322e+26</t>
+          <t>246351.289578092</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312529650230282</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-2.99953179395096e+26</t>
+          <t>-328467.719437455</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-1.22708118843448e+26</t>
+          <t>358344.603022679</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31253008630506</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.63610825124598e+26</t>
+          <t>-477792.137363571</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.49976589697548e+27</t>
+          <t>328479.719437455</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312522237145242</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-1.99968786263397e+27</t>
+          <t>-437972.292583274</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-8.18054125622989e+26</t>
+          <t>477804.137363571</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312522564185696</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.09073883416399e+27</t>
+          <t>-637071.516484762</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9.99843931316986e+27</t>
+          <t>437984.292583274</t>
         </is>
       </c>
     </row>
@@ -1937,17 +1937,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312516677562243</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-1.33312524175598e+28</t>
+          <t>-583978.390111032</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-5.45369417081993e+27</t>
+          <t>637083.516484762</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312516922833792</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7.2715922277599e+27</t>
+          <t>-849444.021979682</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.66562620877991e+28</t>
+          <t>583990.390111032</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.3125125080048</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-8.88750161170654e+28</t>
+          <t>-778653.186814709</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-3.63579611387995e+28</t>
+          <t>849456.021979682</t>
         </is>
       </c>
     </row>
@@ -2003,17 +2003,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312512691953517</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4.84772815183993e+28</t>
+          <t>-1132607.36263958</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4.44375080585327e+29</t>
+          <t>778665.186814709</t>
         </is>
       </c>
     </row>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31250938090973</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-5.92500107447103e+29</t>
+          <t>-1038219.58241961</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-2.42386407591997e+29</t>
+          <t>1132619.36263958</t>
         </is>
       </c>
     </row>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312509518868487</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3.23181876789329e+29</t>
+          <t>-1510158.48351944</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2.96250053723551e+30</t>
+          <t>1038231.58241961</t>
         </is>
       </c>
     </row>
@@ -2069,17 +2069,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312507035629497</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-3.95000071631402e+30</t>
+          <t>-1384308.10989282</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-1.61590938394664e+30</t>
+          <t>1510170.48351944</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312507139097001</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2.15454584526219e+30</t>
+          <t>-2013559.97802591</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.97500035815701e+31</t>
+          <t>1384320.10989282</t>
         </is>
       </c>
     </row>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312505276692423</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-2.63333381087601e+31</t>
+          <t>-1845759.47985709</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-1.0772729226311e+31</t>
+          <t>2013571.97802591</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312505354292171</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.43636389684146e+31</t>
+          <t>-2684761.97070122</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.31666690543801e+32</t>
+          <t>1845771.47985709</t>
         </is>
       </c>
     </row>
@@ -2157,17 +2157,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312503957502611</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-1.75555587391734e+32</t>
+          <t>-2461027.97314278</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-7.18181948420731e+31</t>
+          <t>2684773.97070122</t>
         </is>
       </c>
     </row>
@@ -2179,17 +2179,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312504015701927</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>9.57575931227641e+31</t>
+          <t>-3579697.96093496</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8.7777793695867e+32</t>
+          <t>2461039.97314278</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312502968117561</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-1.17037058261156e+33</t>
+          <t>-3281385.96419038</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-4.7878796561382e+32</t>
+          <t>3579709.96093496</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31250301176677</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>6.3838395415176e+32</t>
+          <t>-4772945.94791328</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5.8518529130578e+33</t>
+          <t>3281397.96419038</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312502226082885</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-7.80247055074374e+33</t>
+          <t>-4375196.6189205</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-3.1919197707588e+33</t>
+          <t>4772957.94791328</t>
         </is>
       </c>
     </row>
@@ -2267,17 +2267,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312502258819635</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.2558930276784e+33</t>
+          <t>-6363943.26388437</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.90123527537187e+34</t>
+          <t>4375208.6189205</t>
         </is>
       </c>
     </row>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31250166955919</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-5.20164703382916e+34</t>
+          <t>-5833610.82522734</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-2.1279465138392e+34</t>
+          <t>6363955.26388437</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312501694111665</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2.83726201845227e+34</t>
+          <t>-8485273.01851249</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.60082351691458e+35</t>
+          <t>5833622.82522734</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31250125216772</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-3.46776468921944e+35</t>
+          <t>-7778163.10030312</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-1.41863100922613e+35</t>
+          <t>8485285.01851249</t>
         </is>
       </c>
     </row>
@@ -2355,17 +2355,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312501270582026</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.89150801230151e+35</t>
+          <t>-11313712.69135</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.73388234460972e+36</t>
+          <t>7778175.10030312</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.31250093912485</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-2.31184312614629e+36</t>
+          <t>-10370899.4670708</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-9.45754006150756e+35</t>
+          <t>11313724.69135</t>
         </is>
       </c>
     </row>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500952935551</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.26100534153434e+36</t>
+          <t>-15084965.5884666</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.15592156307315e+37</t>
+          <t>10370911.4670708</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500704343108</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-1.5412287507641898e+37</t>
+          <t>-13827881.2894278</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-6.3050267076717e+36</t>
+          <t>15084977.5884666</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500714701118</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8.40670227689561e+36</t>
+          <t>-20113302.7846222</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7.706143753820969e+37</t>
+          <t>13827893.2894278</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500528257033</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-1.0274858338428e+38</t>
+          <t>-18437190.3859037</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-4.2033511384477997e+37</t>
+          <t>20113314.7846222</t>
         </is>
       </c>
     </row>
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500536025532</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5.604468184597069e+37</t>
+          <t>-26817752.3794963</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5.13742916921398e+38</t>
+          <t>18437202.3859037</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500396192607</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-6.84990555895198e+38</t>
+          <t>-24582935.8478716</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-2.80223409229854e+38</t>
+          <t>26817764.3794963</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500402018977</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3.73631212306471e+38</t>
+          <t>-35757018.505995</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3.4249527794759905e+39</t>
+          <t>24582947.8478716</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500297144361</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-4.5666037059679806e+39</t>
+          <t>-32777263.1304954</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-1.86815606153236e+39</t>
+          <t>35757030.505995</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500301514136</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2.4908747487098103e+39</t>
+          <t>-47676040.0079933</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2.28330185298399e+40</t>
+          <t>32777275.1304954</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500222858218</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-3.04440247064532e+40</t>
+          <t>-43703032.8406606</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-1.2454373743549e+40</t>
+          <t>47676052.0079933</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500226135547</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1.6605831658065401e+40</t>
+          <t>-63568068.6773245</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.52220123532266e+41</t>
+          <t>43703044.8406606</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.312500167143634</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-2.02960164709688e+41</t>
+          <t>-58270725.7875474</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-8.3029158290327e+40</t>
+          <t>63568080.6773245</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.857142857142857</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.428571428571429</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>-0.428571428571428</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.11111111111111</t>
+          <t>1.77777777777778</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>2.48571428571429</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.551020408163265</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.666666666666667</t>
+          <t>1.70666666666667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-12.6666666666667</t>
+          <t>0.918367346938776</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-0.918367346938775</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.677966101694915</t>
+          <t>5.56521739130435</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-39.3333333333333</t>
+          <t>3.26938775510204</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.6666666666667</t>
+          <t>0.201166180758017</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.519480519480519</t>
+          <t>1.21183431952663</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-32.2222222222222</t>
+          <t>1.47813411078717</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>51.3333333333333</t>
+          <t>-1.47813411078717</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.524590163934426</t>
+          <t>6.44025157232704</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-67.7777777777778</t>
+          <t>4.16501457725947</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.2222222222222</t>
+          <t>-0.198667221990837</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.445682451253482</t>
+          <t>0.966607669616519</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-58.2962962962963</t>
+          <t>2.11786755518534</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.7777777777778</t>
+          <t>-2.11786755518534</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.448493342676944</t>
+          <t>2.23032943098285</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-105.703703703704</t>
+          <t>5.18858808829654</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70.2962962962963</t>
+          <t>-0.655619682275242</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.40276903713027</t>
+          <t>0.821201679092788</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-93.0617283950617</t>
+          <t>2.84899149164039</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>117.703703703704</t>
+          <t>-2.84899149164039</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.404487280771054</t>
+          <t>1.4188045290208</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-156.271604938272</t>
+          <t>6.35838638662462</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>105.061728395062</t>
+          <t>-1.17785106545742</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.375641966250917</t>
+          <t>0.725683241634658</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-139.415637860082</t>
+          <t>3.68456170473187</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>168.271604938272</t>
+          <t>-3.68456170473187</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.376761470252768</t>
+          <t>1.0761755994228</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-223.695473251029</t>
+          <t>7.69529872757099</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>151.415637860082</t>
+          <t>-1.77468693195134</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.357579355379404</t>
+          <t>0.65864861193663</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-201.22085048011</t>
+          <t>4.63949909112214</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>235.695473251029</t>
+          <t>-4.63949909112214</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.358339530204278</t>
+          <t>0.888443216727787</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-313.593964334705</t>
+          <t>9.22319854579542</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>213.22085048011</t>
+          <t>-2.45678506508724</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.345132668795659</t>
+          <t>0.609392798945553</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-283.627800640146</t>
+          <t>5.73085610413959</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>325.593964334705</t>
+          <t>-5.73085610413959</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.345663488661081</t>
+          <t>0.770790853071912</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-433.45861911294</t>
+          <t>10.9693697666233</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>295.627800640146</t>
+          <t>-3.23632578867113</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.336351822692662</t>
+          <t>0.571966057190265</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-393.503734186862</t>
+          <t>6.97812126187381</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>445.45861911294</t>
+          <t>-6.97812126187381</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.336729781235597</t>
+          <t>0.69075194580724</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-593.278158817253</t>
+          <t>12.9649940189981</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>405.503734186862</t>
+          <t>-4.12722947276701</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.330053912767581</t>
+          <t>0.542796502683056</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-540.004978915816</t>
+          <t>8.40356715642721</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>605.278158817253</t>
+          <t>-8.40356715642721</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.330326784652879</t>
+          <t>0.633217788287162</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-806.370878423004</t>
+          <t>15.2457074502835</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>552.004978915816</t>
+          <t>-5.14540511173372</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.325483111056535</t>
+          <t>0.519609496776617</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-735.339971887754</t>
+          <t>10.032648178774</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>818.370878423004</t>
+          <t>-10.032648178774</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.325682093022786</t>
+          <t>0.590203432311191</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1090.49450456401</t>
+          <t>17.8522370860383</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>747.339971887754</t>
+          <t>-6.30903441340997</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.322137236245637</t>
+          <t>0.500887345725371</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-995.786629183672</t>
+          <t>11.894455061456</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1102.49450456401</t>
+          <t>-11.894455061456</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.322283397245039</t>
+          <t>0.557090753137568</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-1469.32600608534</t>
+          <t>20.8311280983295</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1007.78662918367</t>
+          <t>-7.63889647246854</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.319672627737818</t>
+          <t>0.485578372856879</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-1343.04883891156</t>
+          <t>14.0222343559497</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1481.32600608534</t>
+          <t>-14.0222343559497</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.319780565006081</t>
+          <t>0.531022406342188</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-1974.43467478045</t>
+          <t>24.2355749695195</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1355.04883891156</t>
+          <t>-9.15873882567833</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.31784877896308</t>
+          <t>0.472930673630806</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-1806.06511854875</t>
+          <t>16.4539821210853</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1986.43467478045</t>
+          <t>-16.4539821210853</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.31792880394653</t>
+          <t>0.51013517563245</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-2647.91289970727</t>
+          <t>28.1263713937365</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1818.06511854875</t>
+          <t>-10.8957015150609</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.316494491699773</t>
+          <t>0.462392365292517</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-2423.420158065</t>
+          <t>19.2331224240975</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2659.91289970727</t>
+          <t>-19.2331224240975</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.316553996279098</t>
+          <t>0.493161902885715</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-3545.88386627636</t>
+          <t>32.572995878556</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2435.420158065</t>
+          <t>-12.8808017314982</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.315486325692277</t>
+          <t>0.453549237264532</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-3246.56021075333</t>
+          <t>22.4092827703972</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3557.88386627636</t>
+          <t>-22.4092827703971</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.315530668155383</t>
+          <t>0.479210599348736</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-4743.17848836848</t>
+          <t>37.6548524326354</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3258.56021075333</t>
+          <t>-15.1494876931408</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.314734406137643</t>
+          <t>0.446084399960319</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-4344.08028100444</t>
+          <t>26.0391803090253</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4755.17848836848</t>
+          <t>-26.0391803090253</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.314767503476076</t>
+          <t>0.467635082120224</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-6339.57131782464</t>
+          <t>43.4626884944405</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4356.08028100444</t>
+          <t>-17.7422716493038</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.314172814405812</t>
+          <t>0.439751375500424</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-5807.44037467259</t>
+          <t>30.1876346388861</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6351.57131782464</t>
+          <t>-30.1876346388861</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.314197548249811</t>
+          <t>0.457955746335588</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-8468.09509043286</t>
+          <t>50.1002154222177</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5819.44037467259</t>
+          <t>-20.7054533134901</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.313752934063438</t>
+          <t>0.434355676871654</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-7758.58716623012</t>
+          <t>34.9287253015841</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8480.09509043286</t>
+          <t>-34.9287253015841</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.313771434530189</t>
+          <t>0.449809175561137</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-11306.1267872438</t>
+          <t>57.6859604825345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7770.58716623012</t>
+          <t>-24.0919466439886</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.31343875958449</t>
+          <t>0.429741903751808</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-10360.1162216402</t>
+          <t>40.3471146303818</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11318.1267872438</t>
+          <t>-40.3471146303818</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.31345260695574</t>
+          <t>0.442915040249126</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-15090.1690496584</t>
+          <t>66.3553834086108</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10372.1162216402</t>
+          <t>-27.962224735987</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.313203541323439</t>
+          <t>0.425784515601177</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-13828.8216288535</t>
+          <t>46.5395595775792</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15102.1690496584</t>
+          <t>-46.5395595775792</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.313213911155419</t>
+          <t>0.437053734435276</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-20135.5587328779</t>
+          <t>76.2632953241267</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13840.8216288535</t>
+          <t>-32.3853996982709</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.3130273591774</t>
+          <t>0.422381111737043</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-18453.7621718047</t>
+          <t>53.6166395172334</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20147.5587328779</t>
+          <t>-53.6166395172333</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.313035127739634</t>
+          <t>0.432050891004709</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-26862.7449771705</t>
+          <t>87.5866232275734</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18465.7621718047</t>
+          <t>-37.4404567980238</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.312895352588797</t>
+          <t>0.419447455372509</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-24620.3495624063</t>
+          <t>61.7047308768381</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>26874.7449771705</t>
+          <t>-61.7047308768381</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.312901174061231</t>
+          <t>0.4277664238094</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35832.3266362273</t>
+          <t>100.527569402941</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24632.3495624063</t>
+          <t>-43.2176649120272</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.312796420689049</t>
+          <t>0.41691373311658</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-32842.4660832084</t>
+          <t>70.9482638592436</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>35844.3266362273</t>
+          <t>-70.9482638592435</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.312800784012528</t>
+          <t>0.424086621043218</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-47791.7688483031</t>
+          <t>115.31722217479</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>32854.4660832084</t>
+          <t>-49.8201884708883</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.31272226281015</t>
+          <t>0.414721704296541</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-43805.2881109445</t>
+          <t>81.5123015534212</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>47803.7688483031</t>
+          <t>-81.5123015534212</t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0.312725533739841</t>
+          <t>0.420918339625499</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-63737.6917977375</t>
+          <t>132.219682485474</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>43817.2881109445</t>
+          <t>-57.3659296810152</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.312666667472428</t>
+          <t>0.412822500926044</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-58422.3841479261</t>
+          <t>93.5854874896242</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>63749.6917977375</t>
+          <t>-93.5854874896242</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.312669119791106</t>
+          <t>0.418184674299507</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-84998.9223969833</t>
+          <t>151.536779983399</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>58434.3841479261</t>
+          <t>-65.9896339211602</t>
         </is>
       </c>
     </row>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.312624983939715</t>
+          <t>0.411174910093095</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-77911.8455305681</t>
+          <t>107.383414273856</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>85010.9223969833</t>
+          <t>-107.383414273856</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.312626822684749</t>
+          <t>0.41582167998165</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-113347.229862644</t>
+          <t>173.61346283817</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>77923.8455305681</t>
+          <t>-75.8452959098973</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.312593728583132</t>
+          <t>0.409744018665044</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-103897.794040757</t>
+          <t>123.152473455836</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>113359.229862644</t>
+          <t>-123.152473455836</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.312595107364144</t>
+          <t>0.41377585835197</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-151144.973150193</t>
+          <t>198.843957529337</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>103909.794040757</t>
+          <t>-87.1089096113112</t>
         </is>
       </c>
     </row>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.312570291166716</t>
+          <t>0.408500133376203</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-138545.725387677</t>
+          <t>141.174255378098</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>151156.973150193</t>
+          <t>-141.174255378098</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.312571325096275</t>
+          <t>0.412002207087739</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-201541.964200257</t>
+          <t>227.678808604957</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>138557.725387677</t>
+          <t>-99.9816109843557</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.312552715410695</t>
+          <t>0.407417912564748</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-184742.967183569</t>
+          <t>161.770577574969</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>201553.964200257</t>
+          <t>-161.770577574969</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0.312553490770018</t>
+          <t>0.410462688902116</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-268737.952267009</t>
+          <t>260.63292411995</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>184754.967183569</t>
+          <t>-114.693269696406</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0.312539534890743</t>
+          <t>0.406475662276478</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-246339.289578092</t>
+          <t>185.30923151425</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>268749.952267009</t>
+          <t>-185.30923151425</t>
         </is>
       </c>
     </row>
@@ -1827,17 +1827,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0.31254011636083</t>
+          <t>0.409125017720091</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-358332.603022679</t>
+          <t>298.294770422801</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>246351.289578092</t>
+          <t>-131.50659393875</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0.312529650230282</t>
+          <t>0.405654761265602</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-328467.719437455</t>
+          <t>212.210550302</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>358344.603022679</t>
+          <t>-212.210550302</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.31253008630506</t>
+          <t>0.407961687212301</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-477792.137363571</t>
+          <t>341.336880483201</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>328479.719437455</t>
+          <t>-150.721821644286</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0.312522237145242</t>
+          <t>0.404939188004586</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-437972.292583274</t>
+          <t>242.954914630858</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>477804.137363571</t>
+          <t>-242.954914630858</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.312522564185696</t>
+          <t>0.406949186545246</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-637071.516484762</t>
+          <t>390.527863409372</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>437984.292583274</t>
+          <t>-172.682081879184</t>
         </is>
       </c>
     </row>
@@ -1937,17 +1937,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0.312516677562243</t>
+          <t>0.404315129118394</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-583978.390111032</t>
+          <t>278.091331006694</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>637083.516484762</t>
+          <t>-278.091331006694</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.312516922833792</t>
+          <t>0.406067362217127</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-849444.021979682</t>
+          <t>446.746129610711</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>583990.390111032</t>
+          <t>-197.779522147639</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0.3125125080048</t>
+          <t>0.403770653336093</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-778653.186814709</t>
+          <t>318.247235436222</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>849456.021979682</t>
+          <t>-318.247235436222</t>
         </is>
       </c>
     </row>
@@ -2003,17 +2003,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0.312512691953517</t>
+          <t>0.405298894966513</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-1132607.36263958</t>
+          <t>510.995576697955</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>778665.186814709</t>
+          <t>-226.462311025873</t>
         </is>
       </c>
     </row>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0.31250938090973</t>
+          <t>0.403295438557709</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-1038219.58241961</t>
+          <t>364.139697641397</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1132619.36263958</t>
+          <t>-364.139697641397</t>
         </is>
       </c>
     </row>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0.312509518868487</t>
+          <t>0.404628868131311</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-1510158.48351944</t>
+          <t>584.423516226235</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1038231.58241961</t>
+          <t>-259.242641172426</t>
         </is>
       </c>
     </row>
@@ -2069,17 +2069,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0.312507035629497</t>
+          <t>0.402880542284835</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-1384308.10989282</t>
+          <t>416.588225875882</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1510170.48351944</t>
+          <t>-416.588225875882</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0.312507139097001</t>
+          <t>0.404044409290748</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-2013559.97802591</t>
+          <t>668.341161401411</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1384320.10989282</t>
+          <t>-296.70587562563</t>
         </is>
       </c>
     </row>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0.312505276692423</t>
+          <t>0.402518207685568</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-1845759.47985709</t>
+          <t>476.529401001008</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2013571.97802591</t>
+          <t>-476.529401001008</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0.312505354292171</t>
+          <t>0.403534391090603</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-2684761.97070122</t>
+          <t>764.247041601613</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1845771.47985709</t>
+          <t>-339.521000715006</t>
         </is>
       </c>
     </row>
@@ -2157,17 +2157,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0.312503957502611</t>
+          <t>0.402201699119983</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-2461027.97314278</t>
+          <t>545.033601144009</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2684773.97070122</t>
+          <t>-545.033601144009</t>
         </is>
       </c>
     </row>
@@ -2179,17 +2179,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0.312504015701927</t>
+          <t>0.403089180213333</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-3579697.96093496</t>
+          <t>873.853761830414</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2461039.97314278</t>
+          <t>-388.452572245721</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0.312502968117561</t>
+          <t>0.401925162158787</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-3281385.96419038</t>
+          <t>623.324115593153</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3579709.96093496</t>
+          <t>-623.324115593153</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2223,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0.31250301176677</t>
+          <t>0.402700425779826</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-4772945.94791328</t>
+          <t>999.118584949044</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3281397.96419038</t>
+          <t>-444.374368280824</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0.312502226082885</t>
+          <t>0.40168350407071</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-4375196.6189205</t>
+          <t>712.798989249318</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4772957.94791328</t>
+          <t>-712.798989249317</t>
         </is>
       </c>
     </row>
@@ -2267,17 +2267,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0.312502258819635</t>
+          <t>0.402360880250507</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-6363943.26388437</t>
+          <t>1142.27838279891</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4375208.6189205</t>
+          <t>-508.284992320941</t>
         </is>
       </c>
     </row>
@@ -2289,17 +2289,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0.31250166955919</t>
+          <t>0.401472291496644</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-5833610.82522734</t>
+          <t>815.055987713506</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6363955.26388437</t>
+          <t>-815.055987713505</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0.312501694111665</t>
+          <t>0.402064247269003</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-8485273.01851249</t>
+          <t>1305.88958034161</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5833622.82522734</t>
+          <t>-581.325705509647</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0.31250125216772</t>
+          <t>0.401287662617463</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-7778163.10030312</t>
+          <t>931.921128815435</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8485285.01851249</t>
+          <t>-931.921128815435</t>
         </is>
       </c>
     </row>
@@ -2355,17 +2355,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0.312501270582026</t>
+          <t>0.401805051962382</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-11313712.69135</t>
+          <t>1492.8738061047</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7778175.10030312</t>
+          <t>-664.800806296739</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0.31250093912485</t>
+          <t>0.401126251592756</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-10370899.4670708</t>
+          <t>1065.48129007478</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11313724.69135</t>
+          <t>-1065.48129007478</t>
         </is>
       </c>
     </row>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0.312500952935551</t>
+          <t>0.401578530051845</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-15084965.5884666</t>
+          <t>1706.57006411965</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10370911.4670708</t>
+          <t>-760.200921481988</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0.312500704343108</t>
+          <t>0.400985123425903</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-13827881.2894278</t>
+          <t>1218.12147437118</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>15084977.5884666</t>
+          <t>-1218.12147437118</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0.312500714701118</t>
+          <t>0.401380532791458</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-20113302.7846222</t>
+          <t>1950.79435899389</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13827893.2894278</t>
+          <t>-869.229624550843</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.312500528257033</t>
+          <t>0.400861717716944</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-18437190.3859037</t>
+          <t>1392.56739928135</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20113314.7846222</t>
+          <t>-1392.56739928135</t>
         </is>
       </c>
     </row>
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0.312500536025532</t>
+          <t>0.401207445280712</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-26817752.3794963</t>
+          <t>2229.90783885016</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>18437202.3859037</t>
+          <t>-993.833856629535</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0.312500396192607</t>
+          <t>0.400753800013942</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-24582935.8478716</t>
+          <t>1591.93417060726</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>26817764.3794963</t>
+          <t>-1591.93417060725</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0.312500402018977</t>
+          <t>0.401056116119865</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35757018.505995</t>
+          <t>2548.89467297161</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>24582947.8478716</t>
+          <t>-1136.2386932909</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0.312500297144361</t>
+          <t>0.400659419677649</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-32777263.1304954</t>
+          <t>1819.78190926543</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>35757030.505995</t>
+          <t>-1819.78190926543</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0.312500301514136</t>
+          <t>0.400923796718443</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-47676040.0079933</t>
+          <t>2913.45105482469</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>32777275.1304954</t>
+          <t>-1298.98707804674</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0.312500222858218</t>
+          <t>0.400576873342432</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-43703032.8406606</t>
+          <t>2080.17932487478</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>47676052.0079933</t>
+          <t>-2080.17932487478</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0.312500226135547</t>
+          <t>0.400808088844318</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-63568068.6773245</t>
+          <t>3330.08691979965</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>43703044.8406606</t>
+          <t>-1484.98523205342</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0.312500167143634</t>
+          <t>0.400504673195718</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-58270725.7875474</t>
+          <t>2377.77637128547</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>63568080.6773245</t>
+          <t>-2377.77637128546</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>x1</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,12 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.666666666666667</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -475,12 +485,1359 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>inf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33333333333333</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-0.222222222222222</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.666666666666667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-0.666666666666667</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.22222222222222</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.181818181818182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-0.814814814814815</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66666666666667</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.266666666666667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1.11111111111111</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.81481481481481</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0816326530612241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-1.20987654320988</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.11111111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.140350877192983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-1.40740740740741</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.20987654320988</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0448179271708683</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-1.47325102880658</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.40740740740741</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.082051282051282</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-1.60493827160494</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47325102880658</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.0285969615728329</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-1.64883401920439</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.60493827160494</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.0505529225908375</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1.73662551440329</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.64883401920439</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.0185346075876051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-1.76588934613626</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.73662551440329</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.0320802005012533</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-1.82441700960219</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.76588934613626</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.0121315515117051</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1.84392623075751</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.82441700960219</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.0207220333495226</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1.88294467306813</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.84392623075751</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.0079907606829604</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-1.895950820505</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.88294467306813</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.0135342320909332</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-1.92196311537875</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.895950820505</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.0052849430733183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1.93063388033667</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.92196311537875</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.008902335124233</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-1.9479754102525</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.93063388033667</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.0035047728571771</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-1.95375592022445</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.9479754102525</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.0058825219014793</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-1.96531694016834</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.95375592022445</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.0023283548831218</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-1.96917061348296</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.96531694016833</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.0038987468041891</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-1.97687796011222</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.96917061348296</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.0015486308266007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1.97944707565531</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.97687796011222</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.0025890704061542</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-1.98458530674148</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.97944707565531</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.0010308241849575</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-1.98629805043687</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.98458530674148</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.0017215896206976</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-1.98972353782765</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.98629805043687</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.0006865084537876</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-1.99086536695792</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.98972353782765</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.0011457538957836</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-1.99314902521844</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.99086536695792</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.0004573583221706</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-1.99391024463861</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.99314902521844</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.0007629617641088</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-1.99543268347896</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.99391024463861</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.0003047661607737</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-1.99594016309241</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.99543268347896</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.0005082533981633</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-1.99695512231931</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.99594016309241</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.0002031155377731</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-1.9972934420616</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.99695512231931</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.0003386634719151</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-1.9979700815462</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.99729344206161</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.000135382860153</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-1.99819562804107</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.9979700815462</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.0002256992118647</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-1.9986467210308</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.99819562804107</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9.02430227436044e-05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-1.99879708536071</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.9986467210308</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.0001504321888168</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-1.99909781402054</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.99879708536071</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>6.01565864502629e-05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-1.99919805690714</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.99909781402054</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.0001002730415848</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-1.99939854268036</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.99919805690714</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4.01019785687014e-05</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-1.99946537127143</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.99939854268036</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6.68419919400921e-05</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-1.99959902845357</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.99946537127143</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2.67335803096696e-05</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-1.99964358084762</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.99959902845357</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4.45583495912172e-05</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-1.99973268563571</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.99964358084762</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.78219104296393e-05</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-1.99976238723175</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.99973268563571</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2.97042428222568e-05</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-1.99982179042381</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.99976238723175</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.18810618765982e-05</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-1.99984159148783</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.99982179042381</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1.98022403376158e-05</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-1.99988119361587</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.99984159148783</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7.92061381242932e-06</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-1.99989439432522</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.99988119361587</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.32012321445129e-05</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-1.99992079574392</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.99989439432522</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5.2803673846538e-06</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-1.99992959621681</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.99992079574392</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8.80070524952222e-06</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-1.99994719716261</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.99992959621681</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3.520226334955e-06</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-1.99995306414454</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.99994719716261</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5.86708519852731e-06</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-1.99996479810841</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.99995306414454</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2.34680929533678e-06</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-1.9999687094297</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.99996479810841</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3.91136718402703e-06</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-1.99997653207227</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.9999687094297</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1.56453585855722e-06</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-1.9999791396198</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.99997653207227</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2.60756792352908e-06</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-1.99998435471485</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.9999791396198</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.04302227385907e-06</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-1.99998609307986</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.99998435471485</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.73837408283157e-06</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-1.9999895698099</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.99998609307986</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6.9534745742825e-07</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-1.99999072871991</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.9999895698099</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_jacobi.xlsx
+++ b/app/tables/tabla_jacobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,2195 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.73684210526316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-9.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.69230769230769</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.70103092783505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-271.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-97.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.69665809768638</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>678.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.69753086419753</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-2711.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-972.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.69709436873232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3889.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.69718164986628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-27111.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-9722.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.69713800817712</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>38889.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.6971467363354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-271111.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-97222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.69714237224504</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>388889.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>677778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.69714324506131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-2711111.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-972222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.69714280865306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3888889.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.69714289593469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-27111111.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-9722222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.69714285229388</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>38888889.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>67777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.69714286102204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-271111111.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-97222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.69714285665796</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>388888889.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>677777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.69714285753078</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2711111111.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-972222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.69714285709437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3888888889.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6777777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.69714285718165</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-27111111111.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-9722222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.69714285713801</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>38888888889.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67777777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.69714285714674</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-271111111111.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-97222222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.69714285714237</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>388888888889.0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>677777777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.69714285714324</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-2711111111111.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-972222222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.69714285714281</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3888888888889.0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6777777777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.6971428571429</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-27111111111111.0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-9722222222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.69714285714285</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38888888888889.0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>67777777777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-271111111111111.0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-97222222222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>388888888888889.0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>677777777777778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-2711111111111110.0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-972222222222222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3888888888888890.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6777777777777780.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+16</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-9722222222222220.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+16</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+17</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+18</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+18</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+18</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+19</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+18</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+19</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+20</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+20</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+21</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+21</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+21</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+22</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+21</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+22</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+22</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+23</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+23</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+24</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+23</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+24</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+24</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+25</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+24</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+25</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+26</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+25</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+26</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+26</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+27</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+26</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+27</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+28</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+28</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+29</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+28</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+29</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+29</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+30</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+29</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+30</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+30</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+31</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+30</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+31</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+32</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+32</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+33</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+33</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+33</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+34</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+33</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+34</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+34</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+35</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+34</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+35</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+36</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+36</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+36</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+37</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+36</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3.8888888888888897e+37</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+38</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-9.722222222222219e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+38</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+38</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-2.7111111111111104e+39</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+38</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3.8888888888888904e+39</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+39</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+40</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-9.722222222222221e+39</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+40</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.777777777777781e+40</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+41</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+40</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+41</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+41</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+42</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>-9.722222222222221e+41</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3.8888888888888896e+42</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.777777777777779e+42</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-2.7111111111111097e+43</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+42</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3.8888888888888896e+43</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.777777777777779e+43</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+44</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-9.722222222222218e+43</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+44</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+44</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+45</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+44</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+45</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+45</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-2.7111111111111103e+46</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+45</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3.8888888888888903e+46</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+46</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-2.7111111111111097e+47</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+46</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+47</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.777777777777779e+47</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-2.7111111111111098e+48</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+47</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+48</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+48</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+49</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+48</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+49</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+49</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>-2.71111111111111e+50</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-9.72222222222222e+49</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.69714285714286</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3.88888888888889e+50</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6.77777777777778e+50</t>
         </is>
       </c>
     </row>
